--- a/cervical_cancer_data.xlsx
+++ b/cervical_cancer_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristopher\Documents\S8\Data Science\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70C3F74-0BAD-45A5-ADCE-8B5F73611DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB512B40-E5D7-4FEA-817F-6F7712D2B5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="41">
   <si>
     <t>Age</t>
   </si>
@@ -142,12 +142,15 @@
   <si>
     <t>Cuantitativa discreta</t>
   </si>
+  <si>
+    <t>Cualitativa (boolean)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,14 +163,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -177,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -200,6 +195,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -209,12 +217,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -225,6 +278,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B067A69E-6872-49E3-8F80-0526C9C640E7}" name="Tabla1" displayName="Tabla1" ref="A1:B37" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:B37" xr:uid="{B067A69E-6872-49E3-8F80-0526C9C640E7}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D43AB035-7233-44F5-9549-61593AE0F6BB}" name="Variable"/>
+    <tableColumn id="2" xr3:uid="{1066D131-DCEA-478F-B31E-D2B209AA0727}" name="Tipo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,9 +578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ859"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -84154,7 +84216,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B31"/>
+      <selection sqref="A1:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -84164,10 +84226,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -84208,7 +84270,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -84216,7 +84278,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -84224,7 +84286,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -84232,7 +84294,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -84248,7 +84310,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -84264,7 +84326,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -84272,7 +84334,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -84280,7 +84342,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -84288,7 +84350,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -84296,7 +84358,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -84304,7 +84366,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -84312,7 +84374,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -84320,7 +84382,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -84328,7 +84390,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -84336,7 +84398,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -84344,7 +84406,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -84352,7 +84414,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -84360,7 +84422,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -84368,7 +84430,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -84399,16 +84461,16 @@
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>39</v>
+      <c r="B30" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>39</v>
+      <c r="B31" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -84416,7 +84478,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -84424,7 +84486,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -84432,7 +84494,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -84440,7 +84502,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -84448,7 +84510,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -84456,10 +84518,14 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>